--- a/receiver.xlsx
+++ b/receiver.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5B56B-28E8-054A-9D67-83BAED059276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C54B22-E69B-DB4B-A1AC-7D08FF068314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="29440" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="1180" windowWidth="29440" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Recipients" sheetId="1" r:id="rId1"/>
+    <sheet name="Receivers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -23,13 +23,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Hi, *Important Text*: Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
+    <t>Hi, my first bulk message.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +72,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -78,17 +81,18 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -107,18 +111,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A2" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A2" totalsRowShown="0" dataDxfId="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B1:B3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -445,39 +449,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33" style="4" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>33999999999</v>
+        <v>4917624135748</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
